--- a/doc/仓储管控功能.xlsx
+++ b/doc/仓储管控功能.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>序号</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>临时作业黑名单</t>
+  </si>
+  <si>
+    <t>定位卡系统没有看到有这个功能，（因为黑名单需要发卡系统支持，控制发卡机发卡行为）</t>
   </si>
   <si>
     <t>人员进出记录</t>
@@ -267,7 +270,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,14 +285,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.8"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FFC77DBB"/>
-      <name val="Courier New"/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -815,137 +823,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,38 +981,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1533,8 +1556,8 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1628,9 +1651,14 @@
       <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:4">
+    <row r="5" ht="25" customHeight="1" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1639,8 +1667,14 @@
         <v>19</v>
       </c>
       <c r="D5" s="7"/>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:4">
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1649,8 +1683,14 @@
         <v>20</v>
       </c>
       <c r="D6" s="7"/>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:4">
+      <c r="E6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:8">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1659,8 +1699,14 @@
         <v>21</v>
       </c>
       <c r="D7" s="7"/>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:4">
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1671,8 +1717,14 @@
         <v>23</v>
       </c>
       <c r="D8" s="7"/>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:4">
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:8">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1681,6 +1733,12 @@
         <v>24</v>
       </c>
       <c r="D9" s="7"/>
+      <c r="E9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:4">
       <c r="A10" s="5">
@@ -1768,15 +1826,17 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" ht="25" customHeight="1" spans="1:4">
+    <row r="18" ht="56" customHeight="1" spans="1:4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" ht="25" customHeight="1" spans="1:4">
       <c r="A19" s="5">
@@ -1784,7 +1844,7 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -1792,11 +1852,11 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>38</v>
+      <c r="B20" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -1804,9 +1864,9 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -1814,9 +1874,9 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -1825,13 +1885,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1" spans="1:4">
@@ -1840,21 +1900,21 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>46</v>
+      <c r="B25" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="12"/>
     </row>
@@ -1862,9 +1922,9 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="12"/>
     </row>
@@ -1872,33 +1932,33 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" s="12"/>
     </row>
@@ -1906,9 +1966,9 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" s="12"/>
     </row>
@@ -1916,9 +1976,9 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="12"/>
     </row>
@@ -1926,23 +1986,23 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>56</v>
+      <c r="B32" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="7"/>
     </row>
@@ -1950,9 +2010,9 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="7"/>
     </row>
@@ -1960,9 +2020,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" s="7"/>
     </row>
@@ -1971,10 +2031,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="7"/>
     </row>
@@ -1984,7 +2044,7 @@
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37" s="7"/>
     </row>
@@ -1994,7 +2054,7 @@
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D38" s="7"/>
     </row>
@@ -2002,11 +2062,11 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>66</v>
+      <c r="B39" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D39" s="7"/>
     </row>
@@ -2014,9 +2074,9 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2024,9 +2084,9 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="17"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -2034,9 +2094,9 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" s="7"/>
     </row>
@@ -2044,9 +2104,9 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="11"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" s="7"/>
     </row>
@@ -2054,18 +2114,24 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>72</v>
+      <c r="B44" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B9"/>

--- a/doc/仓储管控功能.xlsx
+++ b/doc/仓储管控功能.xlsx
@@ -953,7 +953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1019,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1852,10 +1855,10 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="7"/>
@@ -1864,7 +1867,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
         <v>41</v>
       </c>
@@ -1874,7 +1877,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1910,7 +1913,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1922,7 +1925,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="6" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +1935,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
@@ -1944,7 +1947,7 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
@@ -1956,7 +1959,7 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="6" t="s">
         <v>54</v>
       </c>
@@ -1966,7 +1969,7 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="6" t="s">
         <v>55</v>
       </c>
@@ -1976,7 +1979,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="6" t="s">
         <v>56</v>
       </c>
@@ -1986,7 +1989,7 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2000,7 +2003,7 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="6" t="s">
         <v>60</v>
       </c>
@@ -2010,7 +2013,7 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="6" t="s">
         <v>61</v>
       </c>
@@ -2020,7 +2023,7 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="6" t="s">
         <v>62</v>
       </c>
@@ -2062,7 +2065,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2074,7 +2077,7 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="6" t="s">
         <v>69</v>
       </c>
@@ -2084,7 +2087,7 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="6" t="s">
         <v>70</v>
       </c>
@@ -2094,7 +2097,7 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="6" t="s">
         <v>71</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="6" t="s">
         <v>72</v>
       </c>
@@ -2114,7 +2117,7 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="25" t="s">
         <v>73</v>
       </c>
       <c r="C44" s="6" t="s">
